--- a/biology/Botanique/Bryopsidacées/Bryopsidacées.xlsx
+++ b/biology/Botanique/Bryopsidacées/Bryopsidacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bryopsidac%C3%A9es</t>
+          <t>Bryopsidacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bryopsidaceae sont une famille d'algues vertes de l'ordre des Bryopsidales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bryopsidac%C3%A9es</t>
+          <t>Bryopsidacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Bryopsis, qui vient du grec ancien βρύον / brýon, mousse, et du suffixe -ὄψις / -ópsis, « semblable à ; aspect ; air de », en référence à la ressemblance de cette algue avec une mousse[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Bryopsis, qui vient du grec ancien βρύον / brýon, mousse, et du suffixe -ὄψις / -ópsis, « semblable à ; aspect ; air de », en référence à la ressemblance de cette algue avec une mousse.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bryopsidac%C3%A9es</t>
+          <t>Bryopsidacées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,16 +556,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 août 2012)[2], Catalogue of Life                                   (2 août 2012)[3] et World Register of Marine Species                               (2 août 2012)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 août 2012), Catalogue of Life                                   (2 août 2012) et World Register of Marine Species                               (2 août 2012) :
 Bryopsidella Feldmann, 1975
 Bryopsis J.V.Lamouroux, 1809
 Lambia Delépine, 1967
 Pseudobryopsis Berthold, 1904
 Pseudoderbesia E.Calderon &amp; Schnetter, 1991
 Trichosolen Montagne, 1861
-Selon ITIS      (2 août 2012)[5] :
+Selon ITIS      (2 août 2012) :
 Bryopsis J. V. F. Lamouroux, 1809
 Pseudobryopsis
 Trichosolen</t>
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bryopsidac%C3%A9es</t>
+          <t>Bryopsidacées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 août 2012)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 août 2012) :
 Bryopsidella
 Bryopsidella neglecta
 genre Bryopsis
